--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 15</t>
+    <t>Акт № 14-31 / 133</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -76,22 +76,31 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Картридж Canon TEST!!!!!!</t>
+  </si>
+  <si>
+    <t>52322</t>
+  </si>
+  <si>
+    <t>шт</t>
   </si>
   <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>1123123</t>
-  </si>
-  <si>
-    <t>шт</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
-    <t/>
+    <t>WEEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новый инвентарный номер: </t>
+  </si>
+  <si>
+    <t>554</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,12 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="J11" sqref="J11"/>
@@ -775,43 +778,48 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="14">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>20</v>
+      <c r="J20" s="14">
+        <v>1</v>
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="21" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>2</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -826,21 +834,23 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="1"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -852,99 +862,116 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="G28" s="5" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" s="5"/>
     </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="48">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -967,16 +994,16 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
@@ -987,6 +1014,12 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 133</t>
+    <t>Акт № 14-31 / 11</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -76,31 +76,31 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Картридж Canon TEST!!!!!!</t>
-  </si>
-  <si>
-    <t>52322</t>
+    <t>Жесткий диск Canon WD BLUE 2563</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
-    <t>Жесткий диск Canon WD BLUE 2563</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>Принтер Canon FFAD23ASD</t>
+  </si>
+  <si>
+    <t>sadsad</t>
   </si>
   <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
-    <t>WEEW</t>
+    <t>213123</t>
   </si>
   <si>
     <t xml:space="preserve">Новый инвентарный номер: </t>
   </si>
   <si>
-    <t>554</t>
+    <t>213213</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -796,7 +796,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="14"/>
     </row>
@@ -818,7 +818,9 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="14">
+        <v>3</v>
+      </c>
       <c r="K21" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">

--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 11</t>
+    <t>Акт № 14-31 / 1</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -79,28 +79,28 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>asd1313</t>
+  </si>
+  <si>
     <t>3123123</t>
   </si>
   <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>Принтер Canon FFAD23ASD</t>
-  </si>
-  <si>
-    <t>sadsad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
-    <t>213123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Новый инвентарный номер: </t>
   </si>
   <si>
-    <t>213213</t>
+    <t>2222</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +262,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="J11" sqref="J11"/>
@@ -796,7 +802,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="14"/>
     </row>
@@ -819,9 +825,32 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -836,144 +865,156 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="5"/>
       <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="G38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="52">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -1000,14 +1041,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -1022,6 +1065,8 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 11</t>
+    <t>Акт № 14-31 / 111</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -76,31 +76,22 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Жесткий диск Canon WD BLUE 2563</t>
-  </si>
-  <si>
-    <t>3123123</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>Принтер Canon FFAD23ASD</t>
-  </si>
-  <si>
-    <t>sadsad</t>
+    <t>ПК HP Компьютер в сборе</t>
+  </si>
+  <si>
+    <t>666666</t>
   </si>
   <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
-    <t>213123</t>
+    <t>кккк</t>
   </si>
   <si>
     <t xml:space="preserve">Новый инвентарный номер: </t>
   </si>
   <si>
-    <t>213213</t>
+    <t>22222</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -221,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -790,190 +787,165 @@
         <v>21</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2</v>
-      </c>
-      <c r="B21" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>3</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="43">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -996,16 +968,13 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
@@ -1020,8 +989,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 1</t>
+    <t>Акт № 14-31 / 6</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -85,22 +85,16 @@
     <t>шт</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>asd1313</t>
-  </si>
-  <si>
-    <t>3123123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
+    <t>trtrtrt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Новый инвентарный номер: </t>
   </si>
   <si>
-    <t>2222</t>
+    <t>trtrtrtrt</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -573,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -806,60 +800,18 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2</v>
-      </c>
-      <c r="B21" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>1</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>3</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>2</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -878,7 +830,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -886,7 +838,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -904,7 +856,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,108 +865,92 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="43">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -1037,20 +973,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -1063,10 +994,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test31.xlsx
+++ b/backend/docs/test31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-31 / 1</t>
+    <t>Акт № 14-31 / 122</t>
   </si>
   <si>
     <t>об изготовлении основного средства из имеющихся основных средств и материальных ценностей.</t>
@@ -79,28 +79,22 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>asdasd</t>
+    <t>dsad</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>asd1313</t>
-  </si>
-  <si>
-    <t>3123123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Было сформировано основное средство: </t>
   </si>
   <si>
+    <t>tretertet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Новый инвентарный номер: </t>
   </si>
   <si>
-    <t>2222</t>
+    <t>fjhfgg</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -573,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -806,60 +800,18 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2</v>
-      </c>
-      <c r="B21" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>1</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" ht="38" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>3</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>2</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -878,7 +830,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -886,7 +838,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -904,7 +856,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,108 +865,92 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="43">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -1037,20 +973,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -1063,10 +994,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
